--- a/price.xlsx
+++ b/price.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -473,7 +473,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>予想プレ値!!!
 【7月8日(金)販売予定】ニーナー シャネル アブニー × ウィメンズ ナイキ エア ジョーダン 2 コレクション
@@ -482,6 +482,16 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>予想プレ値!!!
+【7月2日(土)販売予定】ナイキ ダンク LOW レトロ SE ”ワールド チャンプ”
+定価：13,200円(税込)プレ値(転売予想価格)：〜20,000円
+※某人気スニーカーブログ参照</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/price.xlsx
+++ b/price.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -483,7 +483,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>予想プレ値!!!
 【7月2日(土)販売予定】ナイキ ダンク LOW レトロ SE ”ワールド チャンプ”
@@ -492,6 +492,16 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>予想プレ値!!!
+【7月13日(水)販売予定】ナイキ レブロン 3 QS ”ザ ショップ”
+定価：20,900円(税込)プレ値(転売予想価格)：〜定価
+※某人気スニーカーブログ参照</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/price.xlsx
+++ b/price.xlsx
@@ -436,10 +436,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -476,28 +476,50 @@
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>予想プレ値!!!
-【7月8日(金)販売予定】ニーナー シャネル アブニー × ウィメンズ ナイキ エア ジョーダン 2 コレクション
-定価：26,400円 / 29,700円(税込)プレ値(転売予想価格)：〜定価
+【7月2日(土)販売予定】ナイキ ダンク LOW レトロ SE ”ワールド チャンプ”
+定価：13,200円(税込)プレ値(転売予想価格)：〜20,000円
 ※某人気スニーカーブログ参照</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>予想プレ値!!!
-【7月2日(土)販売予定】ナイキ ダンク LOW レトロ SE ”ワールド チャンプ”
-定価：13,200円(税込)プレ値(転売予想価格)：〜20,000円
-※某人気スニーカーブログ参照</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
         <is>
           <t>予想プレ値!!!
 【7月13日(水)販売予定】ナイキ レブロン 3 QS ”ザ ショップ”
 定価：20,900円(税込)プレ値(転売予想価格)：〜定価
+※某人気スニーカーブログ参照</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>予想プレ値!!!
+【7月8日(金)販売予定】ニーナー シャネル アブニー × ウィメンズ ナイキ エア ジョーダン 2 コレクション
+定価：26,400円 / 29,700円(税込)プレ値(転売予想価格)：〜定価
+※某人気スニーカーブログ参照</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>結果発表!!!
+【7月2日(土)販売予定】ナイキ エア ジョーダン 7 レトロ ”シトラス”
+定価：22,550円(税込)
+結果：転売価格：〜定価
+※某人気スニーカーブログ参照</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>結果発表!!!
+【7月2日(土)販売予定】ナイキ ダンク LOW レトロ SE ”ワールド チャンプ”
+定価：13,200円(税込)
+結果：転売価格：〜24,000円
 ※某人気スニーカーブログ参照</t>
         </is>
       </c>

--- a/price.xlsx
+++ b/price.xlsx
@@ -1,41 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuramochiosuke/Desktop/プレ値/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18195D18-1224-EF4C-AC31-1164B3E6C26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>スニーカー</t>
+  </si>
+  <si>
+    <t>結果発表!!!
+【7月1日(金)販売予定】ナイキ エア ジョーダン 1 MID ”ファイア レッド”
+定価：15,400円(税込)
+結果：転売価格：〜定価
+※某人気スニーカーブログ参照</t>
+  </si>
+  <si>
+    <t>予想プレ値!!!
+【7月5日(火)販売予定】ナイキ エア ジョーダン 1 レトロ HIGH OG ”ボルト”
+定価： 19,250円(税込)プレ値(転売予想価格)：定価〜21,000円
+※某人気スニーカーブログ参照</t>
+  </si>
+  <si>
+    <t>予想プレ値!!!
+【7月13日(水)販売予定】ナイキ レブロン 3 QS ”ザ ショップ”
+定価：20,900円(税込)プレ値(転売予想価格)：〜定価
+※某人気スニーカーブログ参照</t>
+  </si>
+  <si>
+    <t>予想プレ値!!!
+【7月3日(日)販売予定】ウィメンズ ナイキ ダンク LOW LX  ”リサ レスリー”
+定価：13,200円(税込)プレ値(転売予想価格)：〜定価
+※某人気スニーカーブログ参照</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,87 +89,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,100 +410,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>スニーカー</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>結果発表!!!
-【7月1日(金)販売予定】ナイキ エア ジョーダン 1 MID ”ファイア レッド”
-定価：15,400円(税込)
-結果：転売価格：〜定価
-※某人気スニーカーブログ参照</t>
-        </is>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>予想プレ値!!!
-【7月5日(火)販売予定】ナイキ エア ジョーダン 1 レトロ HIGH OG ”ボルト”
-定価： 19,250円(税込)プレ値(転売予想価格)：定価〜21,000円
-※某人気スニーカーブログ参照</t>
-        </is>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>予想プレ値!!!
-【7月2日(土)販売予定】ナイキ ダンク LOW レトロ SE ”ワールド チャンプ”
-定価：13,200円(税込)プレ値(転売予想価格)：〜20,000円
-※某人気スニーカーブログ参照</t>
-        </is>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>予想プレ値!!!
-【7月13日(水)販売予定】ナイキ レブロン 3 QS ”ザ ショップ”
-定価：20,900円(税込)プレ値(転売予想価格)：〜定価
-※某人気スニーカーブログ参照</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>予想プレ値!!!
-【7月8日(金)販売予定】ニーナー シャネル アブニー × ウィメンズ ナイキ エア ジョーダン 2 コレクション
-定価：26,400円 / 29,700円(税込)プレ値(転売予想価格)：〜定価
-※某人気スニーカーブログ参照</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>結果発表!!!
-【7月2日(土)販売予定】ナイキ エア ジョーダン 7 レトロ ”シトラス”
-定価：22,550円(税込)
-結果：転売価格：〜定価
-※某人気スニーカーブログ参照</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>結果発表!!!
-【7月2日(土)販売予定】ナイキ ダンク LOW レトロ SE ”ワールド チャンプ”
-定価：13,200円(税込)
-結果：転売価格：〜24,000円
-※某人気スニーカーブログ参照</t>
-        </is>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/price.xlsx
+++ b/price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuramochiosuke/Desktop/プレ値/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18195D18-1224-EF4C-AC31-1164B3E6C26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BADE12-364F-9145-847C-EA20B5956E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,34 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>スニーカー</t>
-  </si>
-  <si>
-    <t>結果発表!!!
-【7月1日(金)販売予定】ナイキ エア ジョーダン 1 MID ”ファイア レッド”
-定価：15,400円(税込)
-結果：転売価格：〜定価
-※某人気スニーカーブログ参照</t>
-  </si>
-  <si>
-    <t>予想プレ値!!!
-【7月5日(火)販売予定】ナイキ エア ジョーダン 1 レトロ HIGH OG ”ボルト”
-定価： 19,250円(税込)プレ値(転売予想価格)：定価〜21,000円
-※某人気スニーカーブログ参照</t>
-  </si>
-  <si>
-    <t>予想プレ値!!!
-【7月13日(水)販売予定】ナイキ レブロン 3 QS ”ザ ショップ”
-定価：20,900円(税込)プレ値(転売予想価格)：〜定価
-※某人気スニーカーブログ参照</t>
-  </si>
-  <si>
-    <t>予想プレ値!!!
-【7月3日(日)販売予定】ウィメンズ ナイキ ダンク LOW LX  ”リサ レスリー”
-定価：13,200円(税込)プレ値(転売予想価格)：〜定価
-※某人気スニーカーブログ参照</t>
   </si>
 </sst>
 </file>
@@ -411,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -424,26 +399,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -1,54 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuramochiosuke/Desktop/プレ値/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BADE12-364F-9145-847C-EA20B5956E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>スニーカー</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,28 +51,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,8 +431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L4"/>
@@ -394,13 +444,56 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>スニーカー</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>予想プレ値!!!
+【7月5日(火)販売予定】ナイキ エア ジョーダン 1 レトロ HIGH OG ”ボルト”
+定価： 19,250円(税込)プレ値(転売予想価格)：定価〜21,000円
+※某人気スニーカーブログ参照</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>結果発表!!!!
+【7月8日(金) / 7月9日(土)販売予定】ナイキ ダンク LOW レトロ  ”カーキ”
+定価：12,100円(税込)
+結果：転売価格：15,000〜16,000円
+※某人気スニーカーブログ参照</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>結果発表!!!!
+【7月5日(火)販売予定】ナイキ エア ジョーダン 1 レトロ HIGH OG ”ボルト”
+定価：19,250円(税込)
+結果：転売価格：〜定価
+※某人気スニーカーブログ参照</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>予想プレ値!!!
+【7月11日(月)販売予定】ウィメンズ ナイキ エア ジョーダン 1 LOW ”フレンチ ブルー”
+定価： 13,200円(税込)プレ値(転売予想価格)：〜15,000円※メンズ使用可能サイズの限る(26.5cm〜)
+※某人気スニーカーブログ参照</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>